--- a/team_specific_matrix/Duquesne_B.xlsx
+++ b/team_specific_matrix/Duquesne_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2152466367713005</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C2">
-        <v>0.5246636771300448</v>
+        <v>0.5233333333333333</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03139013452914798</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1524663677130045</v>
+        <v>0.1433333333333333</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07623318385650224</v>
+        <v>0.09333333333333334</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00819672131147541</v>
+        <v>0.00625</v>
       </c>
       <c r="C3">
-        <v>0.04098360655737705</v>
+        <v>0.03125</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03278688524590164</v>
+        <v>0.03125</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7131147540983607</v>
+        <v>0.69375</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2049180327868853</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03448275862068965</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5517241379310345</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4137931034482759</v>
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03267973856209151</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0718954248366013</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2026143790849673</v>
+        <v>0.2663551401869159</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.05228758169934641</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1568627450980392</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="R6">
-        <v>0.07843137254901961</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="S6">
-        <v>0.4052287581699346</v>
+        <v>0.3691588785046729</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1654135338345865</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02255639097744361</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02255639097744361</v>
+        <v>0.03125</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1578947368421053</v>
+        <v>0.1458333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007518796992481203</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2330827067669173</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="R7">
-        <v>0.06766917293233082</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="S7">
-        <v>0.3233082706766917</v>
+        <v>0.3645833333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08741258741258741</v>
+        <v>0.08439897698209718</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02097902097902098</v>
+        <v>0.02557544757033248</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05944055944055944</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1643356643356643</v>
+        <v>0.1534526854219949</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01048951048951049</v>
+        <v>0.01023017902813299</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1678321678321678</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="R8">
-        <v>0.07342657342657342</v>
+        <v>0.08184143222506395</v>
       </c>
       <c r="S8">
-        <v>0.4160839160839161</v>
+        <v>0.4117647058823529</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1085271317829457</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01550387596899225</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.1085271317829457</v>
+        <v>0.09375</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1162790697674419</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01550387596899225</v>
+        <v>0.015625</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1627906976744186</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="R9">
-        <v>0.08527131782945736</v>
+        <v>0.078125</v>
       </c>
       <c r="S9">
-        <v>0.3875968992248062</v>
+        <v>0.421875</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1207674943566591</v>
+        <v>0.1222130470685384</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02144469525959368</v>
+        <v>0.01981833195706028</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07900677200902935</v>
+        <v>0.07597027250206441</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.100451467268623</v>
+        <v>0.1098265895953757</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02031602708803612</v>
+        <v>0.0189925681255161</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1884875846501129</v>
+        <v>0.1824938067712634</v>
       </c>
       <c r="R10">
-        <v>0.06659142212189616</v>
+        <v>0.07018992568125516</v>
       </c>
       <c r="S10">
-        <v>0.4029345372460497</v>
+        <v>0.4004954582989265</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1531531531531531</v>
+        <v>0.1561461794019934</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1171171171171171</v>
+        <v>0.106312292358804</v>
       </c>
       <c r="K11">
-        <v>0.2207207207207207</v>
+        <v>0.2192691029900332</v>
       </c>
       <c r="L11">
-        <v>0.5045045045045045</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004504504504504504</v>
+        <v>0.006644518272425249</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6923076923076923</v>
+        <v>0.7098765432098766</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2136752136752137</v>
+        <v>0.1975308641975309</v>
       </c>
       <c r="K12">
-        <v>0.008547008547008548</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="L12">
-        <v>0.03418803418803419</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05128205128205128</v>
+        <v>0.04320987654320987</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7586206896551724</v>
+        <v>0.7674418604651163</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2413793103448276</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02580645161290323</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1225806451612903</v>
+        <v>0.1256038647342995</v>
       </c>
       <c r="I15">
-        <v>0.08387096774193549</v>
+        <v>0.07729468599033816</v>
       </c>
       <c r="J15">
-        <v>0.3612903225806451</v>
+        <v>0.3429951690821256</v>
       </c>
       <c r="K15">
-        <v>0.04516129032258064</v>
+        <v>0.05314009661835749</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01935483870967742</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03225806451612903</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3096774193548387</v>
+        <v>0.3140096618357488</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01481481481481482</v>
+        <v>0.01657458563535912</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1555555555555556</v>
+        <v>0.1546961325966851</v>
       </c>
       <c r="I16">
-        <v>0.03703703703703703</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="J16">
-        <v>0.4</v>
+        <v>0.4143646408839779</v>
       </c>
       <c r="K16">
-        <v>0.162962962962963</v>
+        <v>0.138121546961326</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08148148148148149</v>
+        <v>0.07734806629834254</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1481481481481481</v>
+        <v>0.143646408839779</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01393728222996516</v>
+        <v>0.02583979328165375</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1672473867595819</v>
+        <v>0.1679586563307494</v>
       </c>
       <c r="I17">
-        <v>0.07317073170731707</v>
+        <v>0.07493540051679587</v>
       </c>
       <c r="J17">
-        <v>0.4390243902439024</v>
+        <v>0.4366925064599483</v>
       </c>
       <c r="K17">
-        <v>0.09407665505226481</v>
+        <v>0.09819121447028424</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02787456445993031</v>
+        <v>0.02583979328165375</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06968641114982578</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1149825783972125</v>
+        <v>0.1007751937984496</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01754385964912281</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2017543859649123</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="I18">
-        <v>0.07017543859649122</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J18">
-        <v>0.412280701754386</v>
+        <v>0.375</v>
       </c>
       <c r="K18">
-        <v>0.06140350877192982</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01754385964912281</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.09649122807017543</v>
+        <v>0.1011904761904762</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1228070175438596</v>
+        <v>0.1369047619047619</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0111358574610245</v>
+        <v>0.01609010458567981</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1948775055679287</v>
+        <v>0.1946902654867257</v>
       </c>
       <c r="I19">
-        <v>0.09242761692650334</v>
+        <v>0.09814963797264682</v>
       </c>
       <c r="J19">
-        <v>0.3808463251670379</v>
+        <v>0.3748994368463395</v>
       </c>
       <c r="K19">
-        <v>0.1191536748329621</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0178173719376392</v>
+        <v>0.01850362027353178</v>
       </c>
       <c r="N19">
-        <v>0.00111358574610245</v>
+        <v>0.003218020917135961</v>
       </c>
       <c r="O19">
-        <v>0.0645879732739421</v>
+        <v>0.06194690265486726</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1180400890868597</v>
+        <v>0.1174577634754626</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Duquesne_B.xlsx
+++ b/team_specific_matrix/Duquesne_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2133333333333333</v>
+        <v>0.2151898734177215</v>
       </c>
       <c r="C2">
-        <v>0.5233333333333333</v>
+        <v>0.5158227848101266</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02666666666666667</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1433333333333333</v>
+        <v>0.1424050632911392</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09333333333333334</v>
+        <v>0.1012658227848101</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.00625</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="C3">
-        <v>0.03125</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03125</v>
+        <v>0.02994011976047904</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.69375</v>
+        <v>0.6946107784431138</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2375</v>
+        <v>0.2335329341317365</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02272727272727273</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6590909090909091</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3181818181818182</v>
+        <v>0.3061224489795918</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02803738317757009</v>
+        <v>0.03043478260869565</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009345794392523364</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06074766355140187</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2663551401869159</v>
+        <v>0.2695652173913043</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04205607476635514</v>
+        <v>0.0391304347826087</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1448598130841121</v>
+        <v>0.1434782608695652</v>
       </c>
       <c r="R6">
-        <v>0.07943925233644859</v>
+        <v>0.07391304347826087</v>
       </c>
       <c r="S6">
-        <v>0.3691588785046729</v>
+        <v>0.3739130434782609</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1302083333333333</v>
+        <v>0.1268292682926829</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02083333333333333</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03125</v>
+        <v>0.03414634146341464</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1458333333333333</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01041666666666667</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2083333333333333</v>
+        <v>0.2048780487804878</v>
       </c>
       <c r="R7">
-        <v>0.08854166666666667</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="S7">
-        <v>0.3645833333333333</v>
+        <v>0.3707317073170732</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08439897698209718</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02557544757033248</v>
+        <v>0.02810304449648712</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05882352941176471</v>
+        <v>0.0585480093676815</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1534526854219949</v>
+        <v>0.1498829039812646</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01023017902813299</v>
+        <v>0.00936768149882904</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1739130434782609</v>
+        <v>0.1686182669789227</v>
       </c>
       <c r="R8">
-        <v>0.08184143222506395</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="S8">
-        <v>0.4117647058823529</v>
+        <v>0.4215456674473068</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1041666666666667</v>
+        <v>0.1138613861386139</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02083333333333333</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.09375</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1041666666666667</v>
+        <v>0.1089108910891089</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.015625</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1614583333333333</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="R9">
-        <v>0.078125</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="S9">
-        <v>0.421875</v>
+        <v>0.4158415841584158</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1222130470685384</v>
+        <v>0.1171935235158057</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01981833195706028</v>
+        <v>0.02081727062451812</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07597027250206441</v>
+        <v>0.07710100231303008</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1098265895953757</v>
+        <v>0.1133384734001542</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0189925681255161</v>
+        <v>0.02004626060138782</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1824938067712634</v>
+        <v>0.1850424055512722</v>
       </c>
       <c r="R10">
-        <v>0.07018992568125516</v>
+        <v>0.06939090208172706</v>
       </c>
       <c r="S10">
-        <v>0.4004954582989265</v>
+        <v>0.3970701619121049</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1561461794019934</v>
+        <v>0.151702786377709</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.106312292358804</v>
+        <v>0.1114551083591331</v>
       </c>
       <c r="K11">
-        <v>0.2192691029900332</v>
+        <v>0.21671826625387</v>
       </c>
       <c r="L11">
-        <v>0.5116279069767442</v>
+        <v>0.5139318885448917</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006644518272425249</v>
+        <v>0.006191950464396285</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7098765432098766</v>
+        <v>0.7183908045977011</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1975308641975309</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="K12">
-        <v>0.006172839506172839</v>
+        <v>0.005747126436781609</v>
       </c>
       <c r="L12">
-        <v>0.04320987654320987</v>
+        <v>0.04022988505747126</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04320987654320987</v>
+        <v>0.04022988505747126</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7674418604651163</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2325581395348837</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01932367149758454</v>
+        <v>0.01801801801801802</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1256038647342995</v>
+        <v>0.1261261261261261</v>
       </c>
       <c r="I15">
-        <v>0.07729468599033816</v>
+        <v>0.07207207207207207</v>
       </c>
       <c r="J15">
-        <v>0.3429951690821256</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="K15">
-        <v>0.05314009661835749</v>
+        <v>0.05855855855855856</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03381642512077294</v>
+        <v>0.03153153153153153</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03381642512077294</v>
+        <v>0.03603603603603604</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3140096618357488</v>
+        <v>0.3153153153153153</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01657458563535912</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1546961325966851</v>
+        <v>0.15625</v>
       </c>
       <c r="I16">
-        <v>0.05524861878453038</v>
+        <v>0.0625</v>
       </c>
       <c r="J16">
-        <v>0.4143646408839779</v>
+        <v>0.4010416666666667</v>
       </c>
       <c r="K16">
-        <v>0.138121546961326</v>
+        <v>0.140625</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07734806629834254</v>
+        <v>0.07291666666666667</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.143646408839779</v>
+        <v>0.1458333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02583979328165375</v>
+        <v>0.02650602409638554</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1679586563307494</v>
+        <v>0.1783132530120482</v>
       </c>
       <c r="I17">
-        <v>0.07493540051679587</v>
+        <v>0.07469879518072289</v>
       </c>
       <c r="J17">
-        <v>0.4366925064599483</v>
+        <v>0.4289156626506024</v>
       </c>
       <c r="K17">
-        <v>0.09819121447028424</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02583979328165375</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06976744186046512</v>
+        <v>0.06987951807228916</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1007751937984496</v>
+        <v>0.1012048192771084</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01785714285714286</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1785714285714286</v>
+        <v>0.1797752808988764</v>
       </c>
       <c r="I18">
-        <v>0.08333333333333333</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="J18">
-        <v>0.375</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="K18">
-        <v>0.08928571428571429</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01785714285714286</v>
+        <v>0.01685393258426966</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1011904761904762</v>
+        <v>0.1067415730337079</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1369047619047619</v>
+        <v>0.1292134831460674</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01609010458567981</v>
+        <v>0.01574212893553223</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1946902654867257</v>
+        <v>0.1971514242878561</v>
       </c>
       <c r="I19">
-        <v>0.09814963797264682</v>
+        <v>0.09595202398800599</v>
       </c>
       <c r="J19">
-        <v>0.3748994368463395</v>
+        <v>0.3748125937031484</v>
       </c>
       <c r="K19">
-        <v>0.1150442477876106</v>
+        <v>0.1146926536731634</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01850362027353178</v>
+        <v>0.01874062968515742</v>
       </c>
       <c r="N19">
-        <v>0.003218020917135961</v>
+        <v>0.002998500749625187</v>
       </c>
       <c r="O19">
-        <v>0.06194690265486726</v>
+        <v>0.06146926536731634</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1174577634754626</v>
+        <v>0.1184407796101949</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Duquesne_B.xlsx
+++ b/team_specific_matrix/Duquesne_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2151898734177215</v>
+        <v>0.2100591715976331</v>
       </c>
       <c r="C2">
-        <v>0.5158227848101266</v>
+        <v>0.5266272189349113</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02531645569620253</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1424050632911392</v>
+        <v>0.1420118343195266</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1012658227848101</v>
+        <v>0.09763313609467456</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005988023952095809</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="C3">
-        <v>0.03592814371257485</v>
+        <v>0.03804347826086957</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02994011976047904</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6946107784431138</v>
+        <v>0.7065217391304348</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2335329341317365</v>
+        <v>0.2228260869565217</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02040816326530612</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.673469387755102</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3061224489795918</v>
+        <v>0.3269230769230769</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03043478260869565</v>
+        <v>0.03643724696356275</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008695652173913044</v>
+        <v>0.01619433198380567</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06086956521739131</v>
+        <v>0.06477732793522267</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2695652173913043</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0391304347826087</v>
+        <v>0.03643724696356275</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1434782608695652</v>
+        <v>0.145748987854251</v>
       </c>
       <c r="R6">
-        <v>0.07391304347826087</v>
+        <v>0.0728744939271255</v>
       </c>
       <c r="S6">
-        <v>0.3739130434782609</v>
+        <v>0.3643724696356275</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1268292682926829</v>
+        <v>0.1238532110091743</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01951219512195122</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03414634146341464</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1463414634146341</v>
+        <v>0.1422018348623853</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.00975609756097561</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2048780487804878</v>
+        <v>0.2018348623853211</v>
       </c>
       <c r="R7">
-        <v>0.08780487804878048</v>
+        <v>0.09174311926605505</v>
       </c>
       <c r="S7">
-        <v>0.3707317073170732</v>
+        <v>0.3761467889908257</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08196721311475409</v>
+        <v>0.08370044052863436</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02810304449648712</v>
+        <v>0.02643171806167401</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0585480093676815</v>
+        <v>0.05947136563876652</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1498829039812646</v>
+        <v>0.1497797356828194</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.00936768149882904</v>
+        <v>0.01101321585903084</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1686182669789227</v>
+        <v>0.1629955947136564</v>
       </c>
       <c r="R8">
-        <v>0.08196721311475409</v>
+        <v>0.08590308370044053</v>
       </c>
       <c r="S8">
-        <v>0.4215456674473068</v>
+        <v>0.420704845814978</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1138613861386139</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0198019801980198</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0891089108910891</v>
+        <v>0.091324200913242</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1089108910891089</v>
+        <v>0.1141552511415525</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01485148514851485</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1584158415841584</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="R9">
-        <v>0.07920792079207921</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="S9">
-        <v>0.4158415841584158</v>
+        <v>0.4063926940639269</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1171935235158057</v>
+        <v>0.1172614712308813</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02081727062451812</v>
+        <v>0.02039329934450109</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07710100231303008</v>
+        <v>0.07938820101966497</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1133384734001542</v>
+        <v>0.1092498179169701</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02004626060138782</v>
+        <v>0.02039329934450109</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1850424055512722</v>
+        <v>0.1886380189366351</v>
       </c>
       <c r="R10">
-        <v>0.06939090208172706</v>
+        <v>0.07064821558630735</v>
       </c>
       <c r="S10">
-        <v>0.3970701619121049</v>
+        <v>0.3940276766205389</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.151702786377709</v>
+        <v>0.1492537313432836</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1114551083591331</v>
+        <v>0.1074626865671642</v>
       </c>
       <c r="K11">
-        <v>0.21671826625387</v>
+        <v>0.2119402985074627</v>
       </c>
       <c r="L11">
-        <v>0.5139318885448917</v>
+        <v>0.5253731343283582</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006191950464396285</v>
+        <v>0.005970149253731343</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7183908045977011</v>
+        <v>0.7204301075268817</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1954022988505747</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="K12">
-        <v>0.005747126436781609</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="L12">
-        <v>0.04022988505747126</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04022988505747126</v>
+        <v>0.04301075268817205</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7777777777777778</v>
+        <v>0.78</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2222222222222222</v>
+        <v>0.22</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01801801801801802</v>
+        <v>0.01680672268907563</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1261261261261261</v>
+        <v>0.1218487394957983</v>
       </c>
       <c r="I15">
-        <v>0.07207207207207207</v>
+        <v>0.07563025210084033</v>
       </c>
       <c r="J15">
-        <v>0.3423423423423423</v>
+        <v>0.3403361344537815</v>
       </c>
       <c r="K15">
-        <v>0.05855855855855856</v>
+        <v>0.0546218487394958</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.03153153153153153</v>
+        <v>0.03361344537815126</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03603603603603604</v>
+        <v>0.03361344537815126</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3153153153153153</v>
+        <v>0.3235294117647059</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02083333333333333</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.15625</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="I16">
-        <v>0.0625</v>
+        <v>0.06190476190476191</v>
       </c>
       <c r="J16">
-        <v>0.4010416666666667</v>
+        <v>0.3904761904761905</v>
       </c>
       <c r="K16">
-        <v>0.140625</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07291666666666667</v>
+        <v>0.08095238095238096</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1458333333333333</v>
+        <v>0.1571428571428571</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02650602409638554</v>
+        <v>0.0248868778280543</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1783132530120482</v>
+        <v>0.1809954751131222</v>
       </c>
       <c r="I17">
-        <v>0.07469879518072289</v>
+        <v>0.07918552036199095</v>
       </c>
       <c r="J17">
-        <v>0.4289156626506024</v>
+        <v>0.4253393665158371</v>
       </c>
       <c r="K17">
-        <v>0.0963855421686747</v>
+        <v>0.09049773755656108</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02409638554216868</v>
+        <v>0.0248868778280543</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06987951807228916</v>
+        <v>0.07013574660633484</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1012048192771084</v>
+        <v>0.1040723981900453</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01685393258426966</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1797752808988764</v>
+        <v>0.1752577319587629</v>
       </c>
       <c r="I18">
-        <v>0.07865168539325842</v>
+        <v>0.08762886597938144</v>
       </c>
       <c r="J18">
-        <v>0.3820224719101123</v>
+        <v>0.3865979381443299</v>
       </c>
       <c r="K18">
-        <v>0.0898876404494382</v>
+        <v>0.09278350515463918</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01685393258426966</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1067415730337079</v>
+        <v>0.1030927835051546</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1292134831460674</v>
+        <v>0.1185567010309278</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01574212893553223</v>
+        <v>0.01480959097320169</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1971514242878561</v>
+        <v>0.1967559943582511</v>
       </c>
       <c r="I19">
-        <v>0.09595202398800599</v>
+        <v>0.09590973201692525</v>
       </c>
       <c r="J19">
-        <v>0.3748125937031484</v>
+        <v>0.3765867418899859</v>
       </c>
       <c r="K19">
-        <v>0.1146926536731634</v>
+        <v>0.113540197461213</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01874062968515742</v>
+        <v>0.01974612129760226</v>
       </c>
       <c r="N19">
-        <v>0.002998500749625187</v>
+        <v>0.002820874471086037</v>
       </c>
       <c r="O19">
-        <v>0.06146926536731634</v>
+        <v>0.06064880112834979</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1184407796101949</v>
+        <v>0.119181946403385</v>
       </c>
     </row>
   </sheetData>
